--- a/docs/StructureDefinition-my-MyMedication.xlsx
+++ b/docs/StructureDefinition-my-MyMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T20:38:23+02:00</t>
+    <t>2025-05-05T10:23:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A Profile based on NLLMedication describing the medication in medication orders, for example xxxx</t>
+    <t>A Profile based on NLLMedication describing the medication in medication orders, for example Ibuprofen 400 mg tablet</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-my-MyMedication.xlsx
+++ b/docs/StructureDefinition-my-MyMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:23:37+02:00</t>
+    <t>2025-05-11T16:39:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-my-MyMedication.xlsx
+++ b/docs/StructureDefinition-my-MyMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:14+02:00</t>
+    <t>2025-06-02T21:24:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-my-MyMedication.xlsx
+++ b/docs/StructureDefinition-my-MyMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T21:24:52+02:00</t>
+    <t>2025-06-02T21:28:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
